--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ncam1-Robo1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ncam1-Robo1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -91,13 +91,13 @@
     <t>Neutrophils</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Ncam1</t>
   </si>
   <si>
     <t>Robo1</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.6816986666666667</v>
+        <v>0.9949870000000001</v>
       </c>
       <c r="H2">
-        <v>2.045096</v>
+        <v>2.984961</v>
       </c>
       <c r="I2">
-        <v>0.01110711092851045</v>
+        <v>0.03855738270564991</v>
       </c>
       <c r="J2">
-        <v>0.01110711092851045</v>
+        <v>0.03855738270564991</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1956266666666666</v>
+        <v>0.6527809999999999</v>
       </c>
       <c r="N2">
-        <v>0.58688</v>
+        <v>1.958343</v>
       </c>
       <c r="O2">
-        <v>0.007083239896715625</v>
+        <v>0.03189207176889092</v>
       </c>
       <c r="P2">
-        <v>0.007083239896715625</v>
+        <v>0.03189207176889092</v>
       </c>
       <c r="Q2">
-        <v>0.1333584378311111</v>
+        <v>0.649508608847</v>
       </c>
       <c r="R2">
-        <v>1.20022594048</v>
+        <v>5.845577479623</v>
       </c>
       <c r="S2">
-        <v>7.867433126607136E-05</v>
+        <v>0.00122967481646918</v>
       </c>
       <c r="T2">
-        <v>7.867433126607136E-05</v>
+        <v>0.001229674816469181</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.6816986666666667</v>
+        <v>0.9949870000000001</v>
       </c>
       <c r="H3">
-        <v>2.045096</v>
+        <v>2.984961</v>
       </c>
       <c r="I3">
-        <v>0.01110711092851045</v>
+        <v>0.03855738270564991</v>
       </c>
       <c r="J3">
-        <v>0.01110711092851045</v>
+        <v>0.03855738270564991</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>50.619467</v>
       </c>
       <c r="O3">
-        <v>0.6109423190513904</v>
+        <v>0.824349807192614</v>
       </c>
       <c r="P3">
-        <v>0.6109423190513905</v>
+        <v>0.8243498071926141</v>
       </c>
       <c r="Q3">
-        <v>11.50240772042578</v>
+        <v>16.78857053730967</v>
       </c>
       <c r="R3">
-        <v>103.521669483832</v>
+        <v>151.097134835787</v>
       </c>
       <c r="S3">
-        <v>0.006785804108625218</v>
+        <v>0.03178477099925433</v>
       </c>
       <c r="T3">
-        <v>0.006785804108625219</v>
+        <v>0.03178477099925434</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.6816986666666667</v>
+        <v>0.9949870000000001</v>
       </c>
       <c r="H4">
-        <v>2.045096</v>
+        <v>2.984961</v>
       </c>
       <c r="I4">
-        <v>0.01110711092851045</v>
+        <v>0.03855738270564991</v>
       </c>
       <c r="J4">
-        <v>0.01110711092851045</v>
+        <v>0.03855738270564991</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,90 +685,90 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.521927</v>
+        <v>2.942504666666667</v>
       </c>
       <c r="N4">
-        <v>31.565781</v>
+        <v>8.827514000000001</v>
       </c>
       <c r="O4">
-        <v>0.3809773707575451</v>
+        <v>0.143758121038495</v>
       </c>
       <c r="P4">
-        <v>0.3809773707575451</v>
+        <v>0.143758121038495</v>
       </c>
       <c r="Q4">
-        <v>7.172783606664</v>
+        <v>2.927753890772667</v>
       </c>
       <c r="R4">
-        <v>64.555052459976</v>
+        <v>26.34978501695401</v>
       </c>
       <c r="S4">
-        <v>0.004231557918256308</v>
+        <v>0.005542936889926392</v>
       </c>
       <c r="T4">
-        <v>0.004231557918256307</v>
+        <v>0.005542936889926393</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.6816986666666667</v>
+        <v>8.469728666666667</v>
       </c>
       <c r="H5">
-        <v>2.045096</v>
+        <v>25.409186</v>
       </c>
       <c r="I5">
-        <v>0.01110711092851045</v>
+        <v>0.3282159160005915</v>
       </c>
       <c r="J5">
-        <v>0.01110711092851045</v>
+        <v>0.3282159160005916</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.02753733333333333</v>
+        <v>0.6527809999999999</v>
       </c>
       <c r="N5">
-        <v>0.082612</v>
+        <v>1.958343</v>
       </c>
       <c r="O5">
-        <v>0.0009970702943488811</v>
+        <v>0.03189207176889092</v>
       </c>
       <c r="P5">
-        <v>0.0009970702943488811</v>
+        <v>0.03189207176889092</v>
       </c>
       <c r="Q5">
-        <v>0.01877216341688889</v>
+        <v>5.528877948755333</v>
       </c>
       <c r="R5">
-        <v>0.168949470752</v>
+        <v>49.759901538798</v>
       </c>
       <c r="S5">
-        <v>1.107457036285559E-05</v>
+        <v>0.01046748554878314</v>
       </c>
       <c r="T5">
-        <v>1.107457036285559E-05</v>
+        <v>0.01046748554878314</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -797,40 +797,40 @@
         <v>25.409186</v>
       </c>
       <c r="I6">
-        <v>0.1379997063732728</v>
+        <v>0.3282159160005915</v>
       </c>
       <c r="J6">
-        <v>0.1379997063732728</v>
+        <v>0.3282159160005916</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1956266666666666</v>
+        <v>16.87315566666667</v>
       </c>
       <c r="N6">
-        <v>0.58688</v>
+        <v>50.619467</v>
       </c>
       <c r="O6">
-        <v>0.007083239896715625</v>
+        <v>0.824349807192614</v>
       </c>
       <c r="P6">
-        <v>0.007083239896715625</v>
+        <v>0.8243498071926141</v>
       </c>
       <c r="Q6">
-        <v>1.656904786631111</v>
+        <v>142.9110502470958</v>
       </c>
       <c r="R6">
-        <v>14.91214307968</v>
+        <v>1286.199452223862</v>
       </c>
       <c r="S6">
-        <v>0.0009774850259182076</v>
+        <v>0.2705647270726348</v>
       </c>
       <c r="T6">
-        <v>0.0009774850259182076</v>
+        <v>0.270564727072635</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,10 +859,10 @@
         <v>25.409186</v>
       </c>
       <c r="I7">
-        <v>0.1379997063732728</v>
+        <v>0.3282159160005915</v>
       </c>
       <c r="J7">
-        <v>0.1379997063732728</v>
+        <v>0.3282159160005916</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,60 +871,60 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.87315566666667</v>
+        <v>2.942504666666667</v>
       </c>
       <c r="N7">
-        <v>50.619467</v>
+        <v>8.827514000000001</v>
       </c>
       <c r="O7">
-        <v>0.6109423190513904</v>
+        <v>0.143758121038495</v>
       </c>
       <c r="P7">
-        <v>0.6109423190513905</v>
+        <v>0.143758121038495</v>
       </c>
       <c r="Q7">
-        <v>142.9110502470958</v>
+        <v>24.92221612706711</v>
       </c>
       <c r="R7">
-        <v>1286.199452223862</v>
+        <v>224.299945143604</v>
       </c>
       <c r="S7">
-        <v>0.08430986064009824</v>
+        <v>0.04718370337917353</v>
       </c>
       <c r="T7">
-        <v>0.08430986064009825</v>
+        <v>0.04718370337917355</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>8.469728666666667</v>
+        <v>0.04495399999999999</v>
       </c>
       <c r="H8">
-        <v>25.409186</v>
+        <v>0.134862</v>
       </c>
       <c r="I8">
-        <v>0.1379997063732728</v>
+        <v>0.001742041435867791</v>
       </c>
       <c r="J8">
-        <v>0.1379997063732728</v>
+        <v>0.001742041435867791</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,90 +933,90 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.521927</v>
+        <v>0.6527809999999999</v>
       </c>
       <c r="N8">
-        <v>31.565781</v>
+        <v>1.958343</v>
       </c>
       <c r="O8">
-        <v>0.3809773707575451</v>
+        <v>0.03189207176889092</v>
       </c>
       <c r="P8">
-        <v>0.3809773707575451</v>
+        <v>0.03189207176889092</v>
       </c>
       <c r="Q8">
-        <v>89.117866740474</v>
+        <v>0.02934511707399999</v>
       </c>
       <c r="R8">
-        <v>802.0608006642659</v>
+        <v>0.264106053666</v>
       </c>
       <c r="S8">
-        <v>0.05257476529940273</v>
+        <v>5.555731049707737E-05</v>
       </c>
       <c r="T8">
-        <v>0.05257476529940272</v>
+        <v>5.555731049707738E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
-      </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>8.469728666666667</v>
+        <v>0.04495399999999999</v>
       </c>
       <c r="H9">
-        <v>25.409186</v>
+        <v>0.134862</v>
       </c>
       <c r="I9">
-        <v>0.1379997063732728</v>
+        <v>0.001742041435867791</v>
       </c>
       <c r="J9">
-        <v>0.1379997063732728</v>
+        <v>0.001742041435867791</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.02753733333333333</v>
+        <v>16.87315566666667</v>
       </c>
       <c r="N9">
-        <v>0.082612</v>
+        <v>50.619467</v>
       </c>
       <c r="O9">
-        <v>0.0009970702943488811</v>
+        <v>0.824349807192614</v>
       </c>
       <c r="P9">
-        <v>0.0009970702943488811</v>
+        <v>0.8243498071926141</v>
       </c>
       <c r="Q9">
-        <v>0.2332337415368889</v>
+        <v>0.7585158398393331</v>
       </c>
       <c r="R9">
-        <v>2.099103673832</v>
+        <v>6.826642558553999</v>
       </c>
       <c r="S9">
-        <v>0.0001375954078536583</v>
+        <v>0.001436051521779158</v>
       </c>
       <c r="T9">
-        <v>0.0001375954078536583</v>
+        <v>0.001436051521779158</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,75 +1024,75 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.3748256666666667</v>
+        <v>0.04495399999999999</v>
       </c>
       <c r="H10">
-        <v>1.124477</v>
+        <v>0.134862</v>
       </c>
       <c r="I10">
-        <v>0.006107141559886992</v>
+        <v>0.001742041435867791</v>
       </c>
       <c r="J10">
-        <v>0.006107141559886992</v>
+        <v>0.001742041435867791</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1956266666666666</v>
+        <v>2.942504666666667</v>
       </c>
       <c r="N10">
-        <v>0.58688</v>
+        <v>8.827514000000001</v>
       </c>
       <c r="O10">
-        <v>0.007083239896715625</v>
+        <v>0.143758121038495</v>
       </c>
       <c r="P10">
-        <v>0.007083239896715625</v>
+        <v>0.143758121038495</v>
       </c>
       <c r="Q10">
-        <v>0.07332589575111111</v>
+        <v>0.1322773547853333</v>
       </c>
       <c r="R10">
-        <v>0.6599330617599999</v>
+        <v>1.190496193068</v>
       </c>
       <c r="S10">
-        <v>4.325834875188164E-05</v>
+        <v>0.0002504326035915555</v>
       </c>
       <c r="T10">
-        <v>4.325834875188164E-05</v>
+        <v>0.0002504326035915555</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.3748256666666667</v>
+        <v>15.96019966666667</v>
       </c>
       <c r="H11">
-        <v>1.124477</v>
+        <v>47.880599</v>
       </c>
       <c r="I11">
-        <v>0.006107141559886992</v>
+        <v>0.6184839868322428</v>
       </c>
       <c r="J11">
-        <v>0.006107141559886992</v>
+        <v>0.6184839868322429</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,42 +1119,42 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>16.87315566666667</v>
+        <v>0.6527809999999999</v>
       </c>
       <c r="N11">
-        <v>50.619467</v>
+        <v>1.958343</v>
       </c>
       <c r="O11">
-        <v>0.6109423190513904</v>
+        <v>0.03189207176889092</v>
       </c>
       <c r="P11">
-        <v>0.6109423190513905</v>
+        <v>0.03189207176889092</v>
       </c>
       <c r="Q11">
-        <v>6.324491821528778</v>
+        <v>10.41851509860633</v>
       </c>
       <c r="R11">
-        <v>56.92042639375899</v>
+        <v>93.766635887457</v>
       </c>
       <c r="S11">
-        <v>0.003731111227372485</v>
+        <v>0.01972473569596367</v>
       </c>
       <c r="T11">
-        <v>0.003731111227372485</v>
+        <v>0.01972473569596368</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.3748256666666667</v>
+        <v>15.96019966666667</v>
       </c>
       <c r="H12">
-        <v>1.124477</v>
+        <v>47.880599</v>
       </c>
       <c r="I12">
-        <v>0.006107141559886992</v>
+        <v>0.6184839868322428</v>
       </c>
       <c r="J12">
-        <v>0.006107141559886992</v>
+        <v>0.6184839868322429</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,42 +1181,42 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.521927</v>
+        <v>16.87315566666667</v>
       </c>
       <c r="N12">
-        <v>31.565781</v>
+        <v>50.619467</v>
       </c>
       <c r="O12">
-        <v>0.3809773707575451</v>
+        <v>0.824349807192614</v>
       </c>
       <c r="P12">
-        <v>0.3809773707575451</v>
+        <v>0.8243498071926141</v>
       </c>
       <c r="Q12">
-        <v>3.943888302393</v>
+        <v>269.2989334467481</v>
       </c>
       <c r="R12">
-        <v>35.494994721537</v>
+        <v>2423.690401020733</v>
       </c>
       <c r="S12">
-        <v>0.002326682734329879</v>
+        <v>0.5098471552968785</v>
       </c>
       <c r="T12">
-        <v>0.002326682734329879</v>
+        <v>0.5098471552968787</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,57 +1225,57 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.3748256666666667</v>
+        <v>15.96019966666667</v>
       </c>
       <c r="H13">
-        <v>1.124477</v>
+        <v>47.880599</v>
       </c>
       <c r="I13">
-        <v>0.006107141559886992</v>
+        <v>0.6184839868322428</v>
       </c>
       <c r="J13">
-        <v>0.006107141559886992</v>
+        <v>0.6184839868322429</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.02753733333333333</v>
+        <v>2.942504666666667</v>
       </c>
       <c r="N13">
-        <v>0.082612</v>
+        <v>8.827514000000001</v>
       </c>
       <c r="O13">
-        <v>0.0009970702943488811</v>
+        <v>0.143758121038495</v>
       </c>
       <c r="P13">
-        <v>0.0009970702943488811</v>
+        <v>0.143758121038495</v>
       </c>
       <c r="Q13">
-        <v>0.01032169932488889</v>
+        <v>46.96296200009845</v>
       </c>
       <c r="R13">
-        <v>0.09289529392400001</v>
+        <v>422.6666580008861</v>
       </c>
       <c r="S13">
-        <v>6.089249432746808E-06</v>
+        <v>0.08891209583940049</v>
       </c>
       <c r="T13">
-        <v>6.089249432746808E-06</v>
+        <v>0.0889120958394005</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,57 +1287,57 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>51.70379466666666</v>
+        <v>0.3268106666666666</v>
       </c>
       <c r="H14">
-        <v>155.111384</v>
+        <v>0.980432</v>
       </c>
       <c r="I14">
-        <v>0.8424246824416952</v>
+        <v>0.01266445083901121</v>
       </c>
       <c r="J14">
-        <v>0.8424246824416952</v>
+        <v>0.01266445083901121</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.1956266666666666</v>
+        <v>0.6527809999999999</v>
       </c>
       <c r="N14">
-        <v>0.58688</v>
+        <v>1.958343</v>
       </c>
       <c r="O14">
-        <v>0.007083239896715625</v>
+        <v>0.03189207176889092</v>
       </c>
       <c r="P14">
-        <v>0.007083239896715625</v>
+        <v>0.03189207176889092</v>
       </c>
       <c r="Q14">
-        <v>10.11464100465778</v>
+        <v>0.2133357937973333</v>
       </c>
       <c r="R14">
-        <v>91.03176904191999</v>
+        <v>1.920022144176</v>
       </c>
       <c r="S14">
-        <v>0.005967096120649006</v>
+        <v>0.0004038955750713363</v>
       </c>
       <c r="T14">
-        <v>0.005967096120649006</v>
+        <v>0.0004038955750713364</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>51.70379466666666</v>
+        <v>0.3268106666666666</v>
       </c>
       <c r="H15">
-        <v>155.111384</v>
+        <v>0.980432</v>
       </c>
       <c r="I15">
-        <v>0.8424246824416952</v>
+        <v>0.01266445083901121</v>
       </c>
       <c r="J15">
-        <v>0.8424246824416952</v>
+        <v>0.01266445083901121</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,33 +1373,33 @@
         <v>50.619467</v>
       </c>
       <c r="O15">
-        <v>0.6109423190513904</v>
+        <v>0.824349807192614</v>
       </c>
       <c r="P15">
-        <v>0.6109423190513905</v>
+        <v>0.8243498071926141</v>
       </c>
       <c r="Q15">
-        <v>872.4061759680362</v>
+        <v>5.514327252193777</v>
       </c>
       <c r="R15">
-        <v>7851.655583712327</v>
+        <v>49.628945269744</v>
       </c>
       <c r="S15">
-        <v>0.5146728891170604</v>
+        <v>0.01043993760733923</v>
       </c>
       <c r="T15">
-        <v>0.5146728891170606</v>
+        <v>0.01043993760733923</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
         <v>23</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>51.70379466666666</v>
+        <v>0.3268106666666666</v>
       </c>
       <c r="H16">
-        <v>155.111384</v>
+        <v>0.980432</v>
       </c>
       <c r="I16">
-        <v>0.8424246824416952</v>
+        <v>0.01266445083901121</v>
       </c>
       <c r="J16">
-        <v>0.8424246824416952</v>
+        <v>0.01266445083901121</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,184 +1429,184 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>10.521927</v>
+        <v>2.942504666666667</v>
       </c>
       <c r="N16">
-        <v>31.565781</v>
+        <v>8.827514000000001</v>
       </c>
       <c r="O16">
-        <v>0.3809773707575451</v>
+        <v>0.143758121038495</v>
       </c>
       <c r="P16">
-        <v>0.3809773707575451</v>
+        <v>0.143758121038495</v>
       </c>
       <c r="Q16">
-        <v>544.0235531056559</v>
+        <v>0.9616419117831111</v>
       </c>
       <c r="R16">
-        <v>4896.211977950903</v>
+        <v>8.654777206048001</v>
       </c>
       <c r="S16">
-        <v>0.3209447405778969</v>
+        <v>0.001820617656600643</v>
       </c>
       <c r="T16">
-        <v>0.3209447405778969</v>
+        <v>0.001820617656600643</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>51.70379466666666</v>
+        <v>0.008676333333333333</v>
       </c>
       <c r="H17">
-        <v>155.111384</v>
+        <v>0.026029</v>
       </c>
       <c r="I17">
-        <v>0.8424246824416952</v>
+        <v>0.0003362221866367304</v>
       </c>
       <c r="J17">
-        <v>0.8424246824416952</v>
+        <v>0.0003362221866367304</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.02753733333333333</v>
+        <v>0.6527809999999999</v>
       </c>
       <c r="N17">
-        <v>0.082612</v>
+        <v>1.958343</v>
       </c>
       <c r="O17">
-        <v>0.0009970702943488811</v>
+        <v>0.03189207176889092</v>
       </c>
       <c r="P17">
-        <v>0.0009970702943488811</v>
+        <v>0.03189207176889092</v>
       </c>
       <c r="Q17">
-        <v>1.423784628334222</v>
+        <v>0.005663745549666666</v>
       </c>
       <c r="R17">
-        <v>12.814061655008</v>
+        <v>0.050973709947</v>
       </c>
       <c r="S17">
-        <v>0.0008399566260889037</v>
+        <v>1.072282210651204E-05</v>
       </c>
       <c r="T17">
-        <v>0.0008399566260889037</v>
+        <v>1.072282210651204E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.1449283333333333</v>
+        <v>0.008676333333333333</v>
       </c>
       <c r="H18">
-        <v>0.434785</v>
+        <v>0.026029</v>
       </c>
       <c r="I18">
-        <v>0.002361358696634494</v>
+        <v>0.0003362221866367304</v>
       </c>
       <c r="J18">
-        <v>0.002361358696634494</v>
+        <v>0.0003362221866367304</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.1956266666666666</v>
+        <v>16.87315566666667</v>
       </c>
       <c r="N18">
-        <v>0.58688</v>
+        <v>50.619467</v>
       </c>
       <c r="O18">
-        <v>0.007083239896715625</v>
+        <v>0.824349807192614</v>
       </c>
       <c r="P18">
-        <v>0.007083239896715625</v>
+        <v>0.8243498071926141</v>
       </c>
       <c r="Q18">
-        <v>0.02835184675555555</v>
+        <v>0.1463971229492222</v>
       </c>
       <c r="R18">
-        <v>0.2551666208</v>
+        <v>1.317574106543</v>
       </c>
       <c r="S18">
-        <v>1.672607013045785E-05</v>
+        <v>0.0002771646947278678</v>
       </c>
       <c r="T18">
-        <v>1.672607013045785E-05</v>
+        <v>0.0002771646947278678</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.1449283333333333</v>
+        <v>0.008676333333333333</v>
       </c>
       <c r="H19">
-        <v>0.434785</v>
+        <v>0.026029</v>
       </c>
       <c r="I19">
-        <v>0.002361358696634494</v>
+        <v>0.0003362221866367304</v>
       </c>
       <c r="J19">
-        <v>0.002361358696634494</v>
+        <v>0.0003362221866367304</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,152 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>16.87315566666667</v>
+        <v>2.942504666666667</v>
       </c>
       <c r="N19">
-        <v>50.619467</v>
+        <v>8.827514000000001</v>
       </c>
       <c r="O19">
-        <v>0.6109423190513904</v>
+        <v>0.143758121038495</v>
       </c>
       <c r="P19">
-        <v>0.6109423190513905</v>
+        <v>0.143758121038495</v>
       </c>
       <c r="Q19">
-        <v>2.445398328843889</v>
+        <v>0.02553015132288889</v>
       </c>
       <c r="R19">
-        <v>22.008584959595</v>
+        <v>0.229771361906</v>
       </c>
       <c r="S19">
-        <v>0.001442653958234046</v>
+        <v>4.833466980235053E-05</v>
       </c>
       <c r="T19">
-        <v>0.001442653958234046</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G20">
-        <v>0.1449283333333333</v>
-      </c>
-      <c r="H20">
-        <v>0.434785</v>
-      </c>
-      <c r="I20">
-        <v>0.002361358696634494</v>
-      </c>
-      <c r="J20">
-        <v>0.002361358696634494</v>
-      </c>
-      <c r="K20">
-        <v>3</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>10.521927</v>
-      </c>
-      <c r="N20">
-        <v>31.565781</v>
-      </c>
-      <c r="O20">
-        <v>0.3809773707575451</v>
-      </c>
-      <c r="P20">
-        <v>0.3809773707575451</v>
-      </c>
-      <c r="Q20">
-        <v>1.524925343565</v>
-      </c>
-      <c r="R20">
-        <v>13.724328092085</v>
-      </c>
-      <c r="S20">
-        <v>0.000899624227659273</v>
-      </c>
-      <c r="T20">
-        <v>0.0008996242276592729</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G21">
-        <v>0.1449283333333333</v>
-      </c>
-      <c r="H21">
-        <v>0.434785</v>
-      </c>
-      <c r="I21">
-        <v>0.002361358696634494</v>
-      </c>
-      <c r="J21">
-        <v>0.002361358696634494</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M21">
-        <v>0.02753733333333333</v>
-      </c>
-      <c r="N21">
-        <v>0.082612</v>
-      </c>
-      <c r="O21">
-        <v>0.0009970702943488811</v>
-      </c>
-      <c r="P21">
-        <v>0.0009970702943488811</v>
-      </c>
-      <c r="Q21">
-        <v>0.003990939824444444</v>
-      </c>
-      <c r="R21">
-        <v>0.03591845842</v>
-      </c>
-      <c r="S21">
-        <v>2.354440610716645E-06</v>
-      </c>
-      <c r="T21">
-        <v>2.354440610716645E-06</v>
+        <v>4.833466980235054E-05</v>
       </c>
     </row>
   </sheetData>
